--- a/public/sample_excel/jobs-example.xlsx
+++ b/public/sample_excel/jobs-example.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
   <si>
     <t>salary</t>
   </si>
@@ -48,9 +48,6 @@
     <t>mode_of_selection</t>
   </si>
   <si>
-    <t>interview_location</t>
-  </si>
-  <si>
     <t>client_remarks</t>
   </si>
   <si>
@@ -171,9 +168,6 @@
     <t>FULL TIME</t>
   </si>
   <si>
-    <t>Kolkata</t>
-  </si>
-  <si>
     <t>INDIA</t>
   </si>
   <si>
@@ -229,6 +223,9 @@
   </si>
   <si>
     <t>SELECTED</t>
+  </si>
+  <si>
+    <t>mofa_no</t>
   </si>
 </sst>
 </file>
@@ -598,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -613,11 +610,11 @@
     <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="20.28515625" customWidth="1"/>
-    <col min="15" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="20.28515625" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" customWidth="1"/>
     <col min="16" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17.5703125" bestFit="1" customWidth="1"/>
@@ -687,103 +684,103 @@
         <v>12</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="O1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:45">
@@ -791,124 +788,124 @@
         <v>7259847957</v>
       </c>
       <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" t="s">
         <v>46</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>47</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>48</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2">
+        <v>50000</v>
+      </c>
+      <c r="O2">
+        <v>7485752345</v>
+      </c>
+      <c r="P2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="s">
+      <c r="Q2" t="s">
         <v>52</v>
       </c>
-      <c r="N2">
-        <v>50000</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
+        <v>52</v>
+      </c>
+      <c r="S2" t="s">
+        <v>48</v>
+      </c>
+      <c r="T2" t="s">
         <v>53</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>54</v>
-      </c>
-      <c r="R2" t="s">
-        <v>54</v>
-      </c>
-      <c r="S2" t="s">
-        <v>49</v>
-      </c>
-      <c r="T2" t="s">
-        <v>55</v>
       </c>
       <c r="U2">
         <v>7485758586</v>
       </c>
       <c r="V2" t="s">
+        <v>54</v>
+      </c>
+      <c r="W2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X2" t="s">
         <v>56</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Y2" t="s">
         <v>57</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Z2" t="s">
         <v>58</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AB2" t="s">
         <v>59</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AC2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD2" t="s">
         <v>60</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AE2" t="s">
         <v>61</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AF2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG2" t="s">
         <v>61</v>
       </c>
-      <c r="AD2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE2" t="s">
+      <c r="AH2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI2" t="s">
         <v>63</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>65</v>
       </c>
       <c r="AJ2">
         <v>1500</v>
       </c>
       <c r="AK2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AL2">
         <v>2500</v>
       </c>
       <c r="AM2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AN2">
         <v>2500</v>
       </c>
       <c r="AO2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AP2">
         <v>15000</v>
       </c>
       <c r="AQ2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AS2" t="s">
         <v>68</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/public/sample_excel/jobs-example.xlsx
+++ b/public/sample_excel/jobs-example.xlsx
@@ -1,65 +1,93 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="3315" yWindow="3795" windowWidth="21600" windowHeight="11385"/>
+    <workbookView windowWidth="21000" windowHeight="7800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+  <si>
+    <t>contact_no</t>
+  </si>
+  <si>
+    <t>full_name</t>
+  </si>
+  <si>
+    <t>dob</t>
+  </si>
+  <si>
+    <t>whatapp_no</t>
+  </si>
+  <si>
+    <t>position_applied_for_1</t>
+  </si>
+  <si>
+    <t>company_name</t>
+  </si>
+  <si>
+    <t>company_location</t>
+  </si>
+  <si>
+    <t>job_title</t>
+  </si>
+  <si>
+    <t>interview_start_date</t>
+  </si>
+  <si>
+    <t>interview_end_date</t>
+  </si>
+  <si>
+    <t>date_of_interview</t>
+  </si>
+  <si>
+    <t>date_of_selection</t>
+  </si>
+  <si>
+    <t>mode_of_selection</t>
+  </si>
+  <si>
+    <t>client_remarks</t>
+  </si>
+  <si>
+    <t>sponsor</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
   <si>
     <t>salary</t>
   </si>
   <si>
-    <t>interview_start_date</t>
-  </si>
-  <si>
-    <t>interview_end_date</t>
-  </si>
-  <si>
-    <t>contact_no</t>
-  </si>
-  <si>
-    <t>company_name</t>
-  </si>
-  <si>
-    <t>company_location</t>
-  </si>
-  <si>
-    <t>job_title</t>
-  </si>
-  <si>
-    <t>date_of_interview</t>
-  </si>
-  <si>
-    <t>date_of_selection</t>
-  </si>
-  <si>
-    <t>mode_of_selection</t>
-  </si>
-  <si>
-    <t>client_remarks</t>
-  </si>
-  <si>
-    <t>sponsor</t>
-  </si>
-  <si>
-    <t>country</t>
-  </si>
-  <si>
     <t>food_allowance</t>
   </si>
   <si>
+    <t>mofa_no</t>
+  </si>
+  <si>
     <t>mofa_date</t>
   </si>
   <si>
@@ -150,19 +178,28 @@
     <t>job_interview_status</t>
   </si>
   <si>
-    <t>UMC</t>
-  </si>
-  <si>
-    <t>SAUDI</t>
-  </si>
-  <si>
-    <t>KITCHEN HELPER</t>
-  </si>
-  <si>
-    <t>29-10-2024</t>
-  </si>
-  <si>
-    <t>16-11-2024</t>
+    <t>Bipul Das</t>
+  </si>
+  <si>
+    <t>2000-04-05</t>
+  </si>
+  <si>
+    <t>917485758585</t>
+  </si>
+  <si>
+    <t>MACHINE EMBROIDER</t>
+  </si>
+  <si>
+    <t>TRANSCORP</t>
+  </si>
+  <si>
+    <t>UAE</t>
+  </si>
+  <si>
+    <t>PICKERS &amp; PACKERS</t>
+  </si>
+  <si>
+    <t>10-11-2025</t>
   </si>
   <si>
     <t>FULL TIME</t>
@@ -171,103 +208,411 @@
     <t>INDIA</t>
   </si>
   <si>
-    <t>14-11-2024</t>
-  </si>
-  <si>
-    <t>15-11-2024</t>
-  </si>
-  <si>
     <t>DEBASHIS PAL</t>
   </si>
   <si>
     <t>17-11-2024</t>
   </si>
   <si>
-    <t>18-11-2024</t>
-  </si>
-  <si>
-    <t>19-11-2024</t>
-  </si>
-  <si>
-    <t>20-11-2024</t>
-  </si>
-  <si>
-    <t>FIT</t>
-  </si>
-  <si>
-    <t>21-11-2024</t>
-  </si>
-  <si>
-    <t>22-11-2024</t>
-  </si>
-  <si>
-    <t>23-11-2024</t>
-  </si>
-  <si>
-    <t>14-11-2028</t>
-  </si>
-  <si>
-    <t>DUMDUM</t>
-  </si>
-  <si>
-    <t>24-11-2024</t>
-  </si>
-  <si>
-    <t>25-11-2024</t>
-  </si>
-  <si>
-    <t>26-11-2024</t>
-  </si>
-  <si>
-    <t>30-11-2024</t>
-  </si>
-  <si>
     <t>SELECTED</t>
-  </si>
-  <si>
-    <t>mofa_no</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Consolas"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF161D1D"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI Regular"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="Segoe UI Regular"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -275,35 +620,332 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="58" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -587,353 +1229,328 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AW2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="20.28515625" customWidth="1"/>
-    <col min="14" max="14" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.5703125" customWidth="1"/>
-    <col min="16" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="14.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="21.8888888888889" customWidth="1"/>
+    <col min="6" max="6" width="14.8518518518519" customWidth="1"/>
+    <col min="7" max="7" width="17.4259259259259" customWidth="1"/>
+    <col min="8" max="8" width="15.5740740740741" customWidth="1"/>
+    <col min="9" max="9" width="19.8518518518519" customWidth="1"/>
+    <col min="10" max="10" width="19.287037037037" customWidth="1"/>
+    <col min="11" max="11" width="17.712962962963" customWidth="1"/>
+    <col min="12" max="12" width="17.287037037037" customWidth="1"/>
+    <col min="13" max="13" width="18.287037037037" customWidth="1"/>
+    <col min="14" max="14" width="14.4259259259259" customWidth="1"/>
+    <col min="15" max="15" width="12" customWidth="1"/>
+    <col min="16" max="16" width="20.287037037037" customWidth="1"/>
+    <col min="18" max="19" width="15.5740740740741" customWidth="1"/>
+    <col min="20" max="20" width="10.5740740740741" customWidth="1"/>
+    <col min="21" max="21" width="16.4259259259259" customWidth="1"/>
+    <col min="22" max="22" width="17.5740740740741" customWidth="1"/>
+    <col min="23" max="23" width="19.712962962963" customWidth="1"/>
+    <col min="24" max="24" width="20.5740740740741" customWidth="1"/>
+    <col min="25" max="25" width="17.712962962963" customWidth="1"/>
+    <col min="26" max="26" width="24.8518518518519" customWidth="1"/>
+    <col min="27" max="27" width="22.712962962963" customWidth="1"/>
+    <col min="28" max="28" width="24.8518518518519" customWidth="1"/>
+    <col min="29" max="29" width="20.287037037037" customWidth="1"/>
+    <col min="30" max="30" width="14.5740740740741" customWidth="1"/>
+    <col min="31" max="31" width="20.4259259259259" customWidth="1"/>
+    <col min="32" max="32" width="18.1388888888889" customWidth="1"/>
+    <col min="33" max="33" width="22.4259259259259" customWidth="1"/>
+    <col min="34" max="34" width="19.287037037037" customWidth="1"/>
+    <col min="35" max="35" width="15.287037037037" customWidth="1"/>
+    <col min="36" max="36" width="16.4259259259259" customWidth="1"/>
+    <col min="37" max="37" width="19.4259259259259" customWidth="1"/>
+    <col min="38" max="38" width="23.712962962963" customWidth="1"/>
+    <col min="39" max="39" width="21.5740740740741" customWidth="1"/>
+    <col min="40" max="40" width="22.287037037037" customWidth="1"/>
+    <col min="41" max="41" width="19.287037037037" customWidth="1"/>
+    <col min="42" max="43" width="25.712962962963" customWidth="1"/>
+    <col min="44" max="44" width="24.4259259259259" customWidth="1"/>
+    <col min="45" max="45" width="21.5740740740741" customWidth="1"/>
+    <col min="46" max="46" width="25.712962962963" customWidth="1"/>
+    <col min="47" max="47" width="22.712962962963" customWidth="1"/>
+    <col min="48" max="48" width="16.8518518518519" customWidth="1"/>
+    <col min="49" max="49" width="19.712962962963" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45">
+    <row r="1" spans="1:49">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="P1" s="2" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="Q1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="R1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="S1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="T1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="U1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="V1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="W1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="X1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Y1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="Z1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AA1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AB1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AC1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AD1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AE1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AF1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AG1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AH1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AI1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AK1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AL1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AM1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AN1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AO1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AP1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AR1" s="5" t="s">
         <v>43</v>
       </c>
+      <c r="AS1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="2" spans="1:45">
+    <row r="2" spans="1:49">
       <c r="A2">
-        <v>7259847957</v>
+        <v>7259847910</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" t="s">
-        <v>48</v>
+        <v>52</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" t="s">
         <v>55</v>
       </c>
-      <c r="I2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M2">
+      <c r="I2" s="6">
+        <v>45845</v>
+      </c>
+      <c r="J2" s="7">
+        <v>45870</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q2">
         <v>50000</v>
       </c>
-      <c r="O2">
+      <c r="S2">
         <v>7485752345</v>
       </c>
-      <c r="P2" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>52</v>
-      </c>
-      <c r="R2" t="s">
-        <v>52</v>
-      </c>
-      <c r="S2" t="s">
-        <v>48</v>
-      </c>
-      <c r="T2" t="s">
-        <v>53</v>
-      </c>
-      <c r="U2">
+      <c r="T2" s="6">
+        <v>45941</v>
+      </c>
+      <c r="U2" s="6">
+        <v>45941</v>
+      </c>
+      <c r="V2" s="6">
+        <v>45941</v>
+      </c>
+      <c r="W2" s="6">
+        <v>45941</v>
+      </c>
+      <c r="X2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y2">
         <v>7485758586</v>
       </c>
-      <c r="V2" t="s">
-        <v>54</v>
-      </c>
-      <c r="W2" t="s">
-        <v>55</v>
-      </c>
-      <c r="X2" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>57</v>
-      </c>
       <c r="Z2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD2" t="s">
         <v>60</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AA2"/>
+      <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AD2"/>
+      <c r="AW2" t="s">
         <v>61</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AJ2">
-        <v>1500</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL2">
-        <v>2500</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AN2">
-        <v>2500</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP2">
-        <v>15000</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/public/sample_excel/jobs-example.xlsx
+++ b/public/sample_excel/jobs-example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="7800"/>
+    <workbookView windowWidth="23040" windowHeight="9120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,90 +29,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="78">
+  <si>
+    <t>full_name</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>dob</t>
+  </si>
+  <si>
+    <t>education</t>
+  </si>
+  <si>
+    <t>other_education</t>
+  </si>
   <si>
     <t>contact_no</t>
   </si>
   <si>
-    <t>full_name</t>
-  </si>
-  <si>
-    <t>dob</t>
+    <t>alternate_contact_no</t>
+  </si>
+  <si>
+    <t>email</t>
   </si>
   <si>
     <t>whatapp_no</t>
   </si>
   <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>religion</t>
+  </si>
+  <si>
+    <t>ecr_type</t>
+  </si>
+  <si>
+    <t>indian_driving_license</t>
+  </si>
+  <si>
+    <t>international_driving_license</t>
+  </si>
+  <si>
+    <t>english_speak</t>
+  </si>
+  <si>
+    <t>arabic_speak</t>
+  </si>
+  <si>
+    <t>passport_number</t>
+  </si>
+  <si>
     <t>position_applied_for_1</t>
   </si>
   <si>
-    <t>company_name</t>
-  </si>
-  <si>
-    <t>company_location</t>
-  </si>
-  <si>
-    <t>job_title</t>
-  </si>
-  <si>
-    <t>interview_start_date</t>
-  </si>
-  <si>
-    <t>interview_end_date</t>
-  </si>
-  <si>
-    <t>date_of_interview</t>
-  </si>
-  <si>
-    <t>date_of_selection</t>
-  </si>
-  <si>
-    <t>mode_of_selection</t>
-  </si>
-  <si>
-    <t>client_remarks</t>
-  </si>
-  <si>
-    <t>sponsor</t>
-  </si>
-  <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>salary</t>
-  </si>
-  <si>
-    <t>food_allowance</t>
-  </si>
-  <si>
-    <t>mofa_no</t>
-  </si>
-  <si>
-    <t>mofa_date</t>
-  </si>
-  <si>
-    <t>vfs_applied_date</t>
-  </si>
-  <si>
-    <t>vfs_received_date</t>
-  </si>
-  <si>
-    <t>mofa_received_date</t>
-  </si>
-  <si>
-    <t>family_contact_name</t>
-  </si>
-  <si>
-    <t>family_contact_no</t>
-  </si>
-  <si>
-    <t>medical_application_date</t>
-  </si>
-  <si>
-    <t>medical_approval_date</t>
-  </si>
-  <si>
-    <t>medical_completion_date</t>
+    <t>indian_exp</t>
+  </si>
+  <si>
+    <t>abroad_exp</t>
+  </si>
+  <si>
+    <t>job_interview_status</t>
   </si>
   <si>
     <t>medical_expiry_date</t>
@@ -175,59 +157,126 @@
     <t>deployment_date</t>
   </si>
   <si>
-    <t>job_interview_status</t>
+    <t>Dinesh Kartick</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Higer Secondary</t>
+  </si>
+  <si>
+    <t>BCA</t>
+  </si>
+  <si>
+    <t>kk@yopmail.com</t>
+  </si>
+  <si>
+    <t>west bengal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kokata </t>
+  </si>
+  <si>
+    <t>Hindu</t>
+  </si>
+  <si>
+    <t>ECR</t>
+  </si>
+  <si>
+    <t>Four Wheeler</t>
+  </si>
+  <si>
+    <t>Two Wheeler</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>S5632328</t>
+  </si>
+  <si>
+    <t>MACHINE EMBROIDER</t>
+  </si>
+  <si>
+    <t>1 Year Experience</t>
+  </si>
+  <si>
+    <t>SELECTED</t>
   </si>
   <si>
     <t>Bipul Das</t>
   </si>
   <si>
-    <t>2000-04-05</t>
-  </si>
-  <si>
-    <t>917485758585</t>
-  </si>
-  <si>
-    <t>MACHINE EMBROIDER</t>
-  </si>
-  <si>
-    <t>TRANSCORP</t>
-  </si>
-  <si>
-    <t>UAE</t>
-  </si>
-  <si>
-    <t>PICKERS &amp; PACKERS</t>
-  </si>
-  <si>
-    <t>10-11-2025</t>
-  </si>
-  <si>
-    <t>FULL TIME</t>
-  </si>
-  <si>
-    <t>INDIA</t>
-  </si>
-  <si>
-    <t>DEBASHIS PAL</t>
-  </si>
-  <si>
-    <t>17-11-2024</t>
-  </si>
-  <si>
-    <t>SELECTED</t>
+    <t>MBA</t>
+  </si>
+  <si>
+    <t>BSC</t>
+  </si>
+  <si>
+    <t>dk@yopmail.com</t>
+  </si>
+  <si>
+    <t>ENCR</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>P7418525</t>
+  </si>
+  <si>
+    <t>MECHANICAL SUPERVISOR</t>
+  </si>
+  <si>
+    <t>Nirmal Ghosh</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>B.Tech</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Y8575858</t>
+  </si>
+  <si>
+    <t>MOBILE CRANE OPERATOR</t>
+  </si>
+  <si>
+    <t>Jahiralom Sk</t>
+  </si>
+  <si>
+    <t>BBA</t>
+  </si>
+  <si>
+    <t>Muslim</t>
+  </si>
+  <si>
+    <t>Z8575856</t>
+  </si>
+  <si>
+    <t>OFFICE BOY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="dd\-mm\-yyyy;@"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,22 +285,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Consolas"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF161D1D"/>
-      <name val="Courier New"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI Regular"/>
-      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -259,19 +306,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -721,19 +755,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -742,144 +788,124 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="58" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -888,7 +914,7 @@
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
     <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
     <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
     <cellStyle name="Note" xfId="8" builtinId="10"/>
     <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
@@ -939,13 +965,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1235,61 +1254,56 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AW2"/>
+  <dimension ref="A1:AP5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="14.1111111111111" customWidth="1"/>
-    <col min="5" max="5" width="21.8888888888889" customWidth="1"/>
-    <col min="6" max="6" width="14.8518518518519" customWidth="1"/>
-    <col min="7" max="7" width="17.4259259259259" customWidth="1"/>
-    <col min="8" max="8" width="15.5740740740741" customWidth="1"/>
-    <col min="9" max="9" width="19.8518518518519" customWidth="1"/>
-    <col min="10" max="10" width="19.287037037037" customWidth="1"/>
-    <col min="11" max="11" width="17.712962962963" customWidth="1"/>
-    <col min="12" max="12" width="17.287037037037" customWidth="1"/>
-    <col min="13" max="13" width="18.287037037037" customWidth="1"/>
-    <col min="14" max="14" width="14.4259259259259" customWidth="1"/>
-    <col min="15" max="15" width="12" customWidth="1"/>
-    <col min="16" max="16" width="20.287037037037" customWidth="1"/>
-    <col min="18" max="19" width="15.5740740740741" customWidth="1"/>
-    <col min="20" max="20" width="10.5740740740741" customWidth="1"/>
-    <col min="21" max="21" width="16.4259259259259" customWidth="1"/>
-    <col min="22" max="22" width="17.5740740740741" customWidth="1"/>
-    <col min="23" max="23" width="19.712962962963" customWidth="1"/>
-    <col min="24" max="24" width="20.5740740740741" customWidth="1"/>
-    <col min="25" max="25" width="17.712962962963" customWidth="1"/>
-    <col min="26" max="26" width="24.8518518518519" customWidth="1"/>
-    <col min="27" max="27" width="22.712962962963" customWidth="1"/>
-    <col min="28" max="28" width="24.8518518518519" customWidth="1"/>
-    <col min="29" max="29" width="20.287037037037" customWidth="1"/>
-    <col min="30" max="30" width="14.5740740740741" customWidth="1"/>
-    <col min="31" max="31" width="20.4259259259259" customWidth="1"/>
-    <col min="32" max="32" width="18.1388888888889" customWidth="1"/>
-    <col min="33" max="33" width="22.4259259259259" customWidth="1"/>
-    <col min="34" max="34" width="19.287037037037" customWidth="1"/>
-    <col min="35" max="35" width="15.287037037037" customWidth="1"/>
-    <col min="36" max="36" width="16.4259259259259" customWidth="1"/>
-    <col min="37" max="37" width="19.4259259259259" customWidth="1"/>
-    <col min="38" max="38" width="23.712962962963" customWidth="1"/>
+    <col min="1" max="1" width="21.8888888888889" customWidth="1"/>
+    <col min="2" max="2" width="14.8518518518519" customWidth="1"/>
+    <col min="3" max="3" width="17.4259259259259" customWidth="1"/>
+    <col min="4" max="4" width="15.5740740740741" customWidth="1"/>
+    <col min="5" max="5" width="19.8518518518519" customWidth="1"/>
+    <col min="6" max="6" width="19.287037037037" customWidth="1"/>
+    <col min="7" max="7" width="17.712962962963" customWidth="1"/>
+    <col min="8" max="8" width="17.287037037037" customWidth="1"/>
+    <col min="9" max="9" width="18.287037037037" customWidth="1"/>
+    <col min="10" max="10" width="14.4259259259259" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="20.287037037037" customWidth="1"/>
+    <col min="14" max="15" width="15.5740740740741" customWidth="1"/>
+    <col min="16" max="16" width="10.5740740740741" customWidth="1"/>
+    <col min="17" max="17" width="16.4259259259259" customWidth="1"/>
+    <col min="18" max="18" width="17.5740740740741" customWidth="1"/>
+    <col min="19" max="19" width="20.5740740740741" customWidth="1"/>
+    <col min="20" max="20" width="22.712962962963" customWidth="1"/>
+    <col min="21" max="21" width="24.8518518518519" customWidth="1"/>
+    <col min="22" max="22" width="19.712962962963" customWidth="1"/>
+    <col min="23" max="23" width="20.287037037037" customWidth="1"/>
+    <col min="24" max="24" width="14.5740740740741" customWidth="1"/>
+    <col min="25" max="25" width="20.4259259259259" customWidth="1"/>
+    <col min="26" max="26" width="18.1388888888889" customWidth="1"/>
+    <col min="27" max="27" width="22.4259259259259" customWidth="1"/>
+    <col min="28" max="28" width="19.287037037037" customWidth="1"/>
+    <col min="29" max="29" width="15.287037037037" customWidth="1"/>
+    <col min="30" max="30" width="16.4259259259259" customWidth="1"/>
+    <col min="31" max="31" width="19.4259259259259" customWidth="1"/>
+    <col min="32" max="32" width="23.712962962963" customWidth="1"/>
+    <col min="33" max="33" width="21.5740740740741" customWidth="1"/>
+    <col min="34" max="34" width="22.287037037037" customWidth="1"/>
+    <col min="35" max="35" width="19.287037037037" customWidth="1"/>
+    <col min="36" max="37" width="25.712962962963" customWidth="1"/>
+    <col min="38" max="38" width="24.4259259259259" customWidth="1"/>
     <col min="39" max="39" width="21.5740740740741" customWidth="1"/>
-    <col min="40" max="40" width="22.287037037037" customWidth="1"/>
-    <col min="41" max="41" width="19.287037037037" customWidth="1"/>
-    <col min="42" max="43" width="25.712962962963" customWidth="1"/>
-    <col min="44" max="44" width="24.4259259259259" customWidth="1"/>
-    <col min="45" max="45" width="21.5740740740741" customWidth="1"/>
-    <col min="46" max="46" width="25.712962962963" customWidth="1"/>
-    <col min="47" max="47" width="22.712962962963" customWidth="1"/>
-    <col min="48" max="48" width="16.8518518518519" customWidth="1"/>
-    <col min="49" max="49" width="19.712962962963" customWidth="1"/>
+    <col min="40" max="40" width="25.712962962963" customWidth="1"/>
+    <col min="41" max="41" width="22.712962962963" customWidth="1"/>
+    <col min="42" max="42" width="16.8518518518519" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49">
+    <row r="1" spans="1:42">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1305,7 +1319,7 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -1326,197 +1340,361 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AA1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AB1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AC1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AD1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AE1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AF1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AG1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AH1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AI1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AK1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AL1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AM1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AN1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AO1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AP1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="B2" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="C2" s="1">
+        <v>36078</v>
+      </c>
+      <c r="D2" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="E2" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="F2">
+        <v>7412258900</v>
+      </c>
+      <c r="G2">
+        <v>5242525555</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="I2">
+        <v>7412258900</v>
+      </c>
+      <c r="J2" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="5" t="s">
+      <c r="K2" t="s">
         <v>48</v>
       </c>
+      <c r="L2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T2" t="s">
+        <v>56</v>
+      </c>
+      <c r="U2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V2" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="2" spans="1:49">
-      <c r="A2">
-        <v>7259847910</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:21">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="1">
+        <v>36078</v>
+      </c>
+      <c r="D3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3">
+        <v>8555418520</v>
+      </c>
+      <c r="G3">
+        <v>5242525555</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3">
+        <v>8555418520</v>
+      </c>
+      <c r="J3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="M3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>63</v>
+      </c>
+      <c r="R3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S3" t="s">
+        <v>65</v>
+      </c>
+      <c r="T3" t="s">
+        <v>56</v>
+      </c>
+      <c r="U3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="1">
+        <v>35713</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4">
+        <v>9514439620</v>
+      </c>
+      <c r="G4">
+        <v>5242525555</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4">
+        <v>9514439620</v>
+      </c>
+      <c r="J4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="N4" t="s">
         <v>51</v>
       </c>
-      <c r="E2" t="s">
+      <c r="O4" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I2" s="6">
-        <v>45845</v>
-      </c>
-      <c r="J2" s="7">
-        <v>45870</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="P4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>70</v>
+      </c>
+      <c r="R4" t="s">
+        <v>71</v>
+      </c>
+      <c r="S4" t="s">
+        <v>72</v>
+      </c>
+      <c r="T4" t="s">
         <v>56</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="U4" t="s">
         <v>56</v>
       </c>
-      <c r="M2" t="s">
-        <v>57</v>
-      </c>
-      <c r="P2" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q2">
-        <v>50000</v>
-      </c>
-      <c r="S2">
-        <v>7485752345</v>
-      </c>
-      <c r="T2" s="6">
-        <v>45941</v>
-      </c>
-      <c r="U2" s="6">
-        <v>45941</v>
-      </c>
-      <c r="V2" s="6">
-        <v>45941</v>
-      </c>
-      <c r="W2" s="6">
-        <v>45941</v>
-      </c>
-      <c r="X2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y2">
-        <v>7485758586</v>
-      </c>
-      <c r="Z2" t="s">
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="1">
+        <v>34982</v>
+      </c>
+      <c r="D5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" t="s">
         <v>60</v>
       </c>
-      <c r="AA2"/>
-      <c r="AB2"/>
-      <c r="AC2"/>
-      <c r="AD2"/>
-      <c r="AW2" t="s">
-        <v>61</v>
+      <c r="F5">
+        <v>8545222102</v>
+      </c>
+      <c r="G5">
+        <v>5242525555</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5">
+        <v>8545222102</v>
+      </c>
+      <c r="J5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="s">
+        <v>62</v>
+      </c>
+      <c r="N5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>69</v>
+      </c>
+      <c r="R5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S5" t="s">
+        <v>77</v>
+      </c>
+      <c r="T5" t="s">
+        <v>56</v>
+      </c>
+      <c r="U5" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" display="kk@yopmail.com" tooltip="mailto:kk@yopmail.com"/>
+    <hyperlink ref="H3" r:id="rId2" display="dk@yopmail.com" tooltip="mailto:dk@yopmail.com"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>

--- a/public/sample_excel/jobs-example.xlsx
+++ b/public/sample_excel/jobs-example.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="107">
   <si>
     <t>full_name</t>
   </si>
@@ -94,9 +94,78 @@
     <t>abroad_exp</t>
   </si>
   <si>
+    <t>company_name</t>
+  </si>
+  <si>
+    <t>company_location</t>
+  </si>
+  <si>
+    <t>job_title</t>
+  </si>
+  <si>
+    <t>interview_start_date</t>
+  </si>
+  <si>
+    <t>interview_end_date</t>
+  </si>
+  <si>
+    <t>date_of_interview</t>
+  </si>
+  <si>
+    <t>date_of_selection</t>
+  </si>
+  <si>
+    <t>mode_of_selection</t>
+  </si>
+  <si>
+    <t>client_remarks</t>
+  </si>
+  <si>
+    <t>sponsor</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>salary</t>
+  </si>
+  <si>
+    <t>food_allowance</t>
+  </si>
+  <si>
     <t>job_interview_status</t>
   </si>
   <si>
+    <t>mofa_no</t>
+  </si>
+  <si>
+    <t>mofa_date</t>
+  </si>
+  <si>
+    <t>vfs_applied_date</t>
+  </si>
+  <si>
+    <t>vfs_received_date</t>
+  </si>
+  <si>
+    <t>mofa_received_date</t>
+  </si>
+  <si>
+    <t>family_contact_name</t>
+  </si>
+  <si>
+    <t>family_contact_no</t>
+  </si>
+  <si>
+    <t>medical_application_date</t>
+  </si>
+  <si>
+    <t>medical_approval_date</t>
+  </si>
+  <si>
+    <t>medical_completion_date</t>
+  </si>
+  <si>
     <t>medical_expiry_date</t>
   </si>
   <si>
@@ -202,7 +271,25 @@
     <t>1 Year Experience</t>
   </si>
   <si>
+    <t>JAHEZ</t>
+  </si>
+  <si>
+    <t>SAUDI</t>
+  </si>
+  <si>
+    <t>LMV DRIVER</t>
+  </si>
+  <si>
+    <t>FULL TIME</t>
+  </si>
+  <si>
     <t>SELECTED</t>
+  </si>
+  <si>
+    <t>Direct</t>
+  </si>
+  <si>
+    <t>INDIA</t>
   </si>
   <si>
     <t>Bipul Das</t>
@@ -269,14 +356,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="dd\-mm\-yyyy;@"/>
+    <numFmt numFmtId="179" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,6 +387,24 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF4A90E2"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -308,6 +414,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -452,7 +571,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -461,6 +580,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -646,12 +771,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -770,142 +910,153 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1254,10 +1405,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AP5"/>
+  <dimension ref="A1:BM5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
@@ -1280,30 +1431,29 @@
     <col min="18" max="18" width="17.5740740740741" customWidth="1"/>
     <col min="19" max="19" width="20.5740740740741" customWidth="1"/>
     <col min="20" max="20" width="22.712962962963" customWidth="1"/>
-    <col min="21" max="21" width="24.8518518518519" customWidth="1"/>
-    <col min="22" max="22" width="19.712962962963" customWidth="1"/>
-    <col min="23" max="23" width="20.287037037037" customWidth="1"/>
-    <col min="24" max="24" width="14.5740740740741" customWidth="1"/>
-    <col min="25" max="25" width="20.4259259259259" customWidth="1"/>
-    <col min="26" max="26" width="18.1388888888889" customWidth="1"/>
-    <col min="27" max="27" width="22.4259259259259" customWidth="1"/>
-    <col min="28" max="28" width="19.287037037037" customWidth="1"/>
-    <col min="29" max="29" width="15.287037037037" customWidth="1"/>
-    <col min="30" max="30" width="16.4259259259259" customWidth="1"/>
-    <col min="31" max="31" width="19.4259259259259" customWidth="1"/>
-    <col min="32" max="32" width="23.712962962963" customWidth="1"/>
-    <col min="33" max="33" width="21.5740740740741" customWidth="1"/>
-    <col min="34" max="34" width="22.287037037037" customWidth="1"/>
-    <col min="35" max="35" width="19.287037037037" customWidth="1"/>
-    <col min="36" max="37" width="25.712962962963" customWidth="1"/>
-    <col min="38" max="38" width="24.4259259259259" customWidth="1"/>
-    <col min="39" max="39" width="21.5740740740741" customWidth="1"/>
-    <col min="40" max="40" width="25.712962962963" customWidth="1"/>
-    <col min="41" max="41" width="22.712962962963" customWidth="1"/>
-    <col min="42" max="42" width="16.8518518518519" customWidth="1"/>
+    <col min="21" max="45" width="24.8518518518519" customWidth="1"/>
+    <col min="46" max="46" width="20.287037037037" customWidth="1"/>
+    <col min="47" max="47" width="14.5740740740741" customWidth="1"/>
+    <col min="48" max="48" width="20.4259259259259" customWidth="1"/>
+    <col min="49" max="49" width="18.1388888888889" customWidth="1"/>
+    <col min="50" max="50" width="22.4259259259259" customWidth="1"/>
+    <col min="51" max="51" width="19.287037037037" customWidth="1"/>
+    <col min="52" max="52" width="15.287037037037" customWidth="1"/>
+    <col min="53" max="53" width="16.4259259259259" customWidth="1"/>
+    <col min="54" max="54" width="19.4259259259259" customWidth="1"/>
+    <col min="55" max="55" width="23.712962962963" customWidth="1"/>
+    <col min="56" max="56" width="21.5740740740741" customWidth="1"/>
+    <col min="57" max="57" width="22.287037037037" customWidth="1"/>
+    <col min="58" max="58" width="19.287037037037" customWidth="1"/>
+    <col min="59" max="60" width="25.712962962963" customWidth="1"/>
+    <col min="61" max="61" width="24.4259259259259" customWidth="1"/>
+    <col min="62" max="62" width="21.5740740740741" customWidth="1"/>
+    <col min="63" max="63" width="25.712962962963" customWidth="1"/>
+    <col min="64" max="64" width="22.712962962963" customWidth="1"/>
+    <col min="65" max="65" width="16.8518518518519" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42">
+    <row r="1" ht="15.15" spans="1:65">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1370,82 +1520,151 @@
       <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AA1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AB1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AC1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AD1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AE1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AF1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AG1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AH1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AI1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AK1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AL1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AM1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AN1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AO1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AP1" s="7" t="s">
         <v>41</v>
       </c>
+      <c r="AQ1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" s="7" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" ht="19.95" spans="1:40">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="C2" s="1">
         <v>36078</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="F2">
         <v>7412258900</v>
@@ -1454,66 +1673,109 @@
         <v>5242525555</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="I2">
         <v>7412258900</v>
       </c>
       <c r="J2" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="K2" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="L2" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="M2" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="P2" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="Q2" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="R2" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="S2" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="T2" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="U2" t="s">
-        <v>56</v>
-      </c>
-      <c r="V2" t="s">
-        <v>57</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y2" s="8">
+        <v>46058</v>
+      </c>
+      <c r="Z2" s="8">
+        <v>46060</v>
+      </c>
+      <c r="AA2" s="8">
+        <v>46059</v>
+      </c>
+      <c r="AB2" s="8">
+        <v>46059</v>
+      </c>
+      <c r="AC2" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD2" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG2" s="10">
+        <v>1400</v>
+      </c>
+      <c r="AH2" s="10">
+        <v>200</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK2" s="11"/>
+      <c r="AL2" s="11"/>
+      <c r="AM2" s="11"/>
+      <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="C3" s="1">
         <v>36078</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="F3">
         <v>8555418520</v>
@@ -1522,63 +1784,63 @@
         <v>5242525555</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="I3">
         <v>8555418520</v>
       </c>
       <c r="J3" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="K3" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="L3" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="M3" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="N3" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="O3" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="P3" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="Q3" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="R3" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="S3" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="T3" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="U3" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="C4" s="1">
         <v>35713</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="F4">
         <v>9514439620</v>
@@ -1591,57 +1853,57 @@
         <v>9514439620</v>
       </c>
       <c r="J4" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="M4" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="N4" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="P4" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="Q4" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="R4" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="S4" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="T4" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="U4" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="C5" s="1">
         <v>34982</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="F5">
         <v>8545222102</v>
@@ -1654,46 +1916,47 @@
         <v>8545222102</v>
       </c>
       <c r="J5" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="K5" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="L5" t="s">
+        <v>104</v>
+      </c>
+      <c r="M5" t="s">
+        <v>91</v>
+      </c>
+      <c r="N5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" t="s">
         <v>75</v>
       </c>
-      <c r="M5" t="s">
-        <v>62</v>
-      </c>
-      <c r="N5" t="s">
-        <v>51</v>
-      </c>
-      <c r="O5" t="s">
-        <v>52</v>
-      </c>
       <c r="P5" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="Q5" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="R5" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="S5" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="T5" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="U5" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" display="kk@yopmail.com" tooltip="mailto:kk@yopmail.com"/>
     <hyperlink ref="H3" r:id="rId2" display="dk@yopmail.com" tooltip="mailto:dk@yopmail.com"/>
+    <hyperlink ref="X2" r:id="rId3" display="LMV DRIVER" tooltip="http://127.0.0.1:8000/candidates?position_id=117"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/public/sample_excel/jobs-example.xlsx
+++ b/public/sample_excel/jobs-example.xlsx
@@ -523,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37696,6 +37696,23 @@
       <c r="AY1000" s="1"/>
     </row>
   </sheetData>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
+      <formula1>"MALE,FEMALE,OTHER"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576">
+      <formula1>"HINDU,MUSLIM,CHRISTIAN,SIKH,BUDDHIST,JAIN,OTHER"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q1048576">
+      <formula1>"FACE TO FACE,ONLINE,DIRECT"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2:AG1048576">
+      <formula1>"FIT,UNFIT,REPEAT"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M1048576">
+      <formula1>"ECR,ECNR"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>